--- a/aimms_model/energy_hub/results/FIT_0/results_costs.xlsx
+++ b/aimms_model/energy_hub/results/FIT_0/results_costs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="27795" windowHeight="17175" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="20115" windowHeight="11820" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Operating_cost_per_technology" sheetId="1" r:id="rId1"/>
@@ -394,7 +394,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>28861.021254936335</v>
+        <v>144305.1062743995</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -402,7 +402,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>108103.57865662215</v>
+        <v>540517.89328346704</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -455,7 +455,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>5515.3411618191421</v>
+        <v>27576.705809036357</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -463,7 +463,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>11290.818215247153</v>
+        <v>56454.091076273049</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -487,7 +487,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>7030.7164666493181</v>
+        <v>35153.582337735716</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -516,7 +516,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>5069.0607974989962</v>
+        <v>25345.303987494986</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -524,7 +524,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>35884.730012102002</v>
+        <v>179423.65006051</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -548,7 +548,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>17077.10678671518</v>
+        <v>85385.533944479626</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>39445.423214254472</v>
+        <v>197227.11607093085</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -585,7 +585,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>155279.1268839713</v>
+        <v>776395.63442025008</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -609,7 +609,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>24107.823253364499</v>
+        <v>120539.11628221534</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -635,7 +635,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>235202.97226683903</v>
+        <v>1176014.8614407466</v>
       </c>
     </row>
   </sheetData>
@@ -653,7 +653,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>235202.97226683903</v>
+        <v>1176014.8614407466</v>
       </c>
     </row>
   </sheetData>
@@ -682,7 +682,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>3656.913220251934</v>
+        <v>18284.566101259665</v>
       </c>
     </row>
   </sheetData>
@@ -711,7 +711,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>3656.913220251934</v>
+        <v>18284.566101259665</v>
       </c>
     </row>
   </sheetData>

--- a/aimms_model/energy_hub/results/FIT_0/results_costs.xlsx
+++ b/aimms_model/energy_hub/results/FIT_0/results_costs.xlsx
@@ -394,7 +394,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>144305.1062743995</v>
+        <v>275838.91573491984</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -402,7 +402,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>540517.89328346704</v>
+        <v>473564.30442188866</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -455,7 +455,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>27576.705809036357</v>
+        <v>52712.816796936764</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -463,7 +463,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>56454.091076273049</v>
+        <v>49461.160684062263</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -487,7 +487,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>35153.582337735716</v>
+        <v>34436.690714484917</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -516,7 +516,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>25345.303987494986</v>
+        <v>44357.118211477413</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -524,7 +524,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>179423.65006051</v>
+        <v>158729.64374169696</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -548,7 +548,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>85385.533944479626</v>
+        <v>83644.255532410811</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>197227.11607093085</v>
+        <v>372908.85074333404</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -585,7 +585,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>776395.63442025008</v>
+        <v>681755.10884764791</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -609,7 +609,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>120539.11628221534</v>
+        <v>118080.94624689574</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -635,7 +635,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>1176014.8614407466</v>
+        <v>1084661.3914224044</v>
       </c>
     </row>
   </sheetData>
@@ -653,7 +653,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>1176014.8614407466</v>
+        <v>1084661.3914224044</v>
       </c>
     </row>
   </sheetData>
@@ -682,7 +682,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>18284.566101259665</v>
+        <v>27873.041618610336</v>
       </c>
     </row>
   </sheetData>
@@ -711,7 +711,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>18284.566101259665</v>
+        <v>27873.041618610336</v>
       </c>
     </row>
   </sheetData>
